--- a/extra_documentation/Elements.xlsx
+++ b/extra_documentation/Elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriela Barajas\Desktop\01 APFutura\01 APXGIS\08 DOCUSAURUS\testing-one\extra_documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc1da2a02662a9c5/Desktop/01 APFUTURA/01 APXGIS/08 DOCUSAURUS/testing-one/extra_documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72E2FA4-0736-4C50-AB2E-32699952B90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14250" yWindow="-975" windowWidth="14400" windowHeight="15210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NameTypeTitle" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -323,9 +323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +363,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -469,7 +469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -611,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,9 +621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -637,12 +637,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -1015,15 +1015,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF8B9E9-D771-4A4C-8603-16A55A404D7A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12" style="7" customWidth="1"/>
-    <col min="3" max="3" width="64.08984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="64.08984375" style="6" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
@@ -1042,10 +1042,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1054,10 +1054,10 @@
         <f t="shared" ref="A3:A8" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1066,10 +1066,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1078,10 +1078,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1090,10 +1090,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1102,10 +1102,10 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1114,10 +1114,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>62</v>
       </c>
     </row>
